--- a/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T1.xlsx
+++ b/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aws\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\ZUFT7N3I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\raw\CW_field_meassurements\Raw_data_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A79489-0DA2-46DB-93EC-0032EA7BFF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3558913-24ED-4BD3-9AFE-18B8A1CF01E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyseresultaten" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="529">
   <si>
     <t>Analysis</t>
   </si>
@@ -108,72 +108,6 @@
   </si>
   <si>
     <t>Monsteromschrijving</t>
-  </si>
-  <si>
-    <t>CW1_EFF(CW1_EFF-1-2)</t>
-  </si>
-  <si>
-    <t>CW2_EFF(CW2_EFF-1-3)</t>
-  </si>
-  <si>
-    <t>CW3_EFF(CW3_EFF-1-2)</t>
-  </si>
-  <si>
-    <t>INF(INF-1-2)</t>
-  </si>
-  <si>
-    <t>CW1MF01(CW1MF01-1-3)</t>
-  </si>
-  <si>
-    <t>CW1MF02(CW1MF02-1-3)</t>
-  </si>
-  <si>
-    <t>CW1MF06(CW1MF06-1-2)</t>
-  </si>
-  <si>
-    <t>CW1MF10(CW1MF10-1-3)</t>
-  </si>
-  <si>
-    <t>CW1MF05(CW1MF05-1-2)</t>
-  </si>
-  <si>
-    <t>CW1MF09(CW1MF09-1-3)</t>
-  </si>
-  <si>
-    <t>CW2MF01(CW2MF01-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF02(CW2MF02-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF05(CW2MF05-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF06(CW2MF06-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF09(CW2MF09-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF10(CW2MF10-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF02(CW3MF02-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF01(CW3MF01-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF05(CW3MF05-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF06(CW3MF06-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF09(CW3MF09-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF10(CW3MF10-1-2)</t>
   </si>
   <si>
     <t>Rapport status</t>
@@ -1740,13 +1674,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1762,7 +1696,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2080,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:X62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2307,354 +2241,354 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>457</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>468</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>439</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>496</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>487</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>478</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>481</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>46</v>
+        <v>515</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>47</v>
+        <v>521</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>48</v>
+        <v>518</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>49</v>
+        <v>527</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>50</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2662,3296 +2596,3296 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="V16" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="V20" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S23" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="L26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="O26" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="X28" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="T31" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="S37" s="3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5965,7 +5899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB9436-E307-45F8-BB00-A3DB3A3851A7}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5995,115 +5929,115 @@
   <sheetData>
     <row r="1" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -6114,34 +6048,34 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J2" s="6">
         <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA2">
         <v>890</v>
@@ -6159,7 +6093,7 @@
         <v>0.38</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ2" s="6">
         <v>9</v>
@@ -6173,43 +6107,43 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA3" s="6">
         <v>1215</v>
@@ -6230,7 +6164,7 @@
         <v>0.46</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ3" s="6">
         <v>9</v>
@@ -6244,43 +6178,43 @@
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA4" s="6">
         <v>797</v>
@@ -6301,7 +6235,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ4" s="6">
         <v>8</v>
@@ -6315,37 +6249,37 @@
         <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA5" s="6">
         <v>789</v>
@@ -6366,7 +6300,7 @@
         <v>4.2</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ5" s="6">
         <v>8</v>
@@ -6380,34 +6314,34 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -6418,37 +6352,37 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA7" s="6">
         <v>450</v>
@@ -6469,7 +6403,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ7" s="6">
         <v>9</v>
@@ -6483,40 +6417,40 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="AA8" s="6">
         <v>1922</v>
@@ -6537,7 +6471,7 @@
         <v>0.33</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ8" s="6">
         <v>11</v>
@@ -6551,43 +6485,43 @@
         <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA9" s="6">
         <v>879</v>
@@ -6608,7 +6542,7 @@
         <v>0.49</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ9" s="6">
         <v>8</v>
@@ -6622,34 +6556,34 @@
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J10" s="6">
         <v>2</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA10" s="6">
         <v>536</v>
@@ -6667,7 +6601,7 @@
         <v>7.8</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ10" s="6">
         <v>8</v>
@@ -6681,40 +6615,40 @@
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA11">
         <v>920</v>
@@ -6735,7 +6669,7 @@
         <v>0.3</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ11" s="6">
         <v>9</v>
@@ -6749,43 +6683,43 @@
         <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA12" s="6">
         <v>672</v>
@@ -6803,7 +6737,7 @@
         <v>0.52</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ12" s="6">
         <v>7</v>
@@ -6817,43 +6751,43 @@
         <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA13" s="6">
         <v>686</v>
@@ -6874,7 +6808,7 @@
         <v>4.25</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ13">
         <v>8</v>
@@ -6888,37 +6822,37 @@
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J14" s="6">
         <v>2</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA14" s="6">
         <v>955</v>
@@ -6939,7 +6873,7 @@
         <v>0.25</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ14" s="6">
         <v>9</v>
@@ -6953,43 +6887,43 @@
         <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA15" s="6">
         <v>610</v>
@@ -7010,7 +6944,7 @@
         <v>0.73</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ15" s="6">
         <v>9</v>
@@ -7024,43 +6958,43 @@
         <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J16" s="6">
         <v>2</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA16" s="6">
         <v>488</v>
@@ -7081,7 +7015,7 @@
         <v>5.25</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ16" s="6">
         <v>8</v>
@@ -7095,40 +7029,40 @@
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>519</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA17" s="6">
         <v>1462</v>
@@ -7149,7 +7083,7 @@
         <v>3.5</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ17" s="6">
         <v>8</v>
@@ -7163,37 +7097,37 @@
         <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J18" s="6">
         <v>2</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA18" s="6">
         <v>556</v>
@@ -7214,7 +7148,7 @@
         <v>0.45</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ18" s="6">
         <v>8</v>
@@ -7228,34 +7162,34 @@
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J19" s="6">
         <v>2</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA19" s="6">
         <v>345</v>
@@ -7276,7 +7210,7 @@
         <v>0.66</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ19" s="6">
         <v>8</v>
@@ -7290,34 +7224,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA20" s="6">
         <v>514</v>
@@ -7338,9 +7272,9 @@
         <v>5.7</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ20" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -7350,34 +7284,34 @@
         <v>27</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J21" s="6">
         <v>2</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA21" s="6">
         <v>625</v>
@@ -7398,7 +7332,7 @@
         <v>0.63</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ21" s="6">
         <v>9</v>
@@ -7412,34 +7346,34 @@
         <v>27</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA22" s="6">
         <v>477</v>
@@ -7460,7 +7394,7 @@
         <v>7.01</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ22" s="6">
         <v>8</v>
@@ -7474,37 +7408,37 @@
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J23" s="6">
         <v>2</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA23">
         <v>1080</v>
@@ -7525,7 +7459,7 @@
         <v>7.48</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ23" s="6">
         <v>8</v>
@@ -7539,40 +7473,40 @@
         <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J24" s="6">
         <v>2</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA24" s="6">
         <v>593</v>
@@ -7593,7 +7527,7 @@
         <v>0.51</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ24" s="6">
         <v>9</v>
@@ -7607,40 +7541,40 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J25" s="6">
         <v>2</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA25" s="6">
         <v>496</v>
@@ -7661,7 +7595,7 @@
         <v>8.81</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ25" s="6">
         <v>8</v>
@@ -7675,40 +7609,40 @@
         <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>547</v>
-      </c>
       <c r="I26" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA26" s="6">
         <v>470</v>
@@ -7729,7 +7663,7 @@
         <v>0.53</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ26" s="6">
         <v>8</v>
@@ -7743,40 +7677,40 @@
         <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J27" s="6">
         <v>2</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA27" s="6">
         <v>606</v>
@@ -7797,7 +7731,7 @@
         <v>6.88</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ27" s="6">
         <v>8</v>
@@ -7809,6 +7743,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B380A3F0EA06B24F8F03FA0CEBF15084" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c0085e6b87ca3933b267e9388aac1dca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5" xmlns:ns3="7233923c-a7e0-4e49-b29e-d359fd888d60" xmlns:ns4="6bf0a9f1-8f76-4db1-b737-dd267e3134be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9213f80c0b63d29d9b80bcf564b8da0f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5"/>
@@ -8043,15 +7986,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8065,6 +7999,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66672A08-F088-4E0D-B8C0-6438A1EC2EFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFD2E7A1-97DB-4505-8674-8281AC26212D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8080,14 +8022,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66672A08-F088-4E0D-B8C0-6438A1EC2EFE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T1.xlsx
+++ b/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\raw\CW_field_meassurements\Raw_data_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3558913-24ED-4BD3-9AFE-18B8A1CF01E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798BE4B2-8655-40AB-A62E-3AB99D9CBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="531">
   <si>
     <t>Analysis</t>
   </si>
@@ -1608,6 +1608,12 @@
   </si>
   <si>
     <t>1899-12-30T09:45:10</t>
+  </si>
+  <si>
+    <t>nitriet-N</t>
+  </si>
+  <si>
+    <t>nitraat-N</t>
   </si>
 </sst>
 </file>
@@ -2014,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5586,7 +5592,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>386</v>
+        <v>529</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>388</v>
@@ -5734,7 +5740,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>389</v>
+        <v>530</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>388</v>
@@ -7743,15 +7749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B380A3F0EA06B24F8F03FA0CEBF15084" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c0085e6b87ca3933b267e9388aac1dca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5" xmlns:ns3="7233923c-a7e0-4e49-b29e-d359fd888d60" xmlns:ns4="6bf0a9f1-8f76-4db1-b737-dd267e3134be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9213f80c0b63d29d9b80bcf564b8da0f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5"/>
@@ -7986,6 +7983,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7999,14 +8005,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66672A08-F088-4E0D-B8C0-6438A1EC2EFE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFD2E7A1-97DB-4505-8674-8281AC26212D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8022,6 +8020,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66672A08-F088-4E0D-B8C0-6438A1EC2EFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T1.xlsx
+++ b/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aws\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\ZUFT7N3I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\raw\CW_field_meassurements\Raw_data_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A79489-0DA2-46DB-93EC-0032EA7BFF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798BE4B2-8655-40AB-A62E-3AB99D9CBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyseresultaten" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="531">
   <si>
     <t>Analysis</t>
   </si>
@@ -110,72 +110,6 @@
     <t>Monsteromschrijving</t>
   </si>
   <si>
-    <t>CW1_EFF(CW1_EFF-1-2)</t>
-  </si>
-  <si>
-    <t>CW2_EFF(CW2_EFF-1-3)</t>
-  </si>
-  <si>
-    <t>CW3_EFF(CW3_EFF-1-2)</t>
-  </si>
-  <si>
-    <t>INF(INF-1-2)</t>
-  </si>
-  <si>
-    <t>CW1MF01(CW1MF01-1-3)</t>
-  </si>
-  <si>
-    <t>CW1MF02(CW1MF02-1-3)</t>
-  </si>
-  <si>
-    <t>CW1MF06(CW1MF06-1-2)</t>
-  </si>
-  <si>
-    <t>CW1MF10(CW1MF10-1-3)</t>
-  </si>
-  <si>
-    <t>CW1MF05(CW1MF05-1-2)</t>
-  </si>
-  <si>
-    <t>CW1MF09(CW1MF09-1-3)</t>
-  </si>
-  <si>
-    <t>CW2MF01(CW2MF01-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF02(CW2MF02-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF05(CW2MF05-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF06(CW2MF06-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF09(CW2MF09-1-2)</t>
-  </si>
-  <si>
-    <t>CW2MF10(CW2MF10-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF02(CW3MF02-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF01(CW3MF01-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF05(CW3MF05-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF06(CW3MF06-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF09(CW3MF09-1-2)</t>
-  </si>
-  <si>
-    <t>CW3MF10(CW3MF10-1-2)</t>
-  </si>
-  <si>
     <t>Rapport status</t>
   </si>
   <si>
@@ -1674,6 +1608,12 @@
   </si>
   <si>
     <t>1899-12-30T09:45:10</t>
+  </si>
+  <si>
+    <t>nitriet-N</t>
+  </si>
+  <si>
+    <t>nitraat-N</t>
   </si>
 </sst>
 </file>
@@ -1740,13 +1680,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1762,7 +1702,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2080,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:X62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2307,354 +2247,354 @@
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>457</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>453</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>468</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>439</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>496</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>487</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>478</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>481</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>46</v>
+        <v>515</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>47</v>
+        <v>521</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>48</v>
+        <v>518</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>49</v>
+        <v>527</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>50</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -2662,3296 +2602,3296 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="V16" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="T20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="V20" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="S23" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="L26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="O26" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="X28" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="T31" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="S37" s="3" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="X48" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="M50" s="3" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>411</v>
+        <v>530</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5965,7 +5905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB9436-E307-45F8-BB00-A3DB3A3851A7}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5995,115 +5935,115 @@
   <sheetData>
     <row r="1" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -6114,34 +6054,34 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J2" s="6">
         <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA2">
         <v>890</v>
@@ -6159,7 +6099,7 @@
         <v>0.38</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ2" s="6">
         <v>9</v>
@@ -6173,43 +6113,43 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J3" s="6">
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA3" s="6">
         <v>1215</v>
@@ -6230,7 +6170,7 @@
         <v>0.46</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ3" s="6">
         <v>9</v>
@@ -6244,43 +6184,43 @@
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA4" s="6">
         <v>797</v>
@@ -6301,7 +6241,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ4" s="6">
         <v>8</v>
@@ -6315,37 +6255,37 @@
         <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J5" s="6">
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA5" s="6">
         <v>789</v>
@@ -6366,7 +6306,7 @@
         <v>4.2</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ5" s="6">
         <v>8</v>
@@ -6380,34 +6320,34 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -6418,37 +6358,37 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA7" s="6">
         <v>450</v>
@@ -6469,7 +6409,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ7" s="6">
         <v>9</v>
@@ -6483,40 +6423,40 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="AA8" s="6">
         <v>1922</v>
@@ -6537,7 +6477,7 @@
         <v>0.33</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ8" s="6">
         <v>11</v>
@@ -6551,43 +6491,43 @@
         <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA9" s="6">
         <v>879</v>
@@ -6608,7 +6548,7 @@
         <v>0.49</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ9" s="6">
         <v>8</v>
@@ -6622,34 +6562,34 @@
         <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J10" s="6">
         <v>2</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA10" s="6">
         <v>536</v>
@@ -6667,7 +6607,7 @@
         <v>7.8</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ10" s="6">
         <v>8</v>
@@ -6681,40 +6621,40 @@
         <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA11">
         <v>920</v>
@@ -6735,7 +6675,7 @@
         <v>0.3</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ11" s="6">
         <v>9</v>
@@ -6749,43 +6689,43 @@
         <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA12" s="6">
         <v>672</v>
@@ -6803,7 +6743,7 @@
         <v>0.52</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ12" s="6">
         <v>7</v>
@@ -6817,43 +6757,43 @@
         <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA13" s="6">
         <v>686</v>
@@ -6874,7 +6814,7 @@
         <v>4.25</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ13">
         <v>8</v>
@@ -6888,37 +6828,37 @@
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J14" s="6">
         <v>2</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA14" s="6">
         <v>955</v>
@@ -6939,7 +6879,7 @@
         <v>0.25</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ14" s="6">
         <v>9</v>
@@ -6953,43 +6893,43 @@
         <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA15" s="6">
         <v>610</v>
@@ -7010,7 +6950,7 @@
         <v>0.73</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ15" s="6">
         <v>9</v>
@@ -7024,43 +6964,43 @@
         <v>27</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J16" s="6">
         <v>2</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA16" s="6">
         <v>488</v>
@@ -7081,7 +7021,7 @@
         <v>5.25</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ16" s="6">
         <v>8</v>
@@ -7095,40 +7035,40 @@
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>519</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA17" s="6">
         <v>1462</v>
@@ -7149,7 +7089,7 @@
         <v>3.5</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ17" s="6">
         <v>8</v>
@@ -7163,37 +7103,37 @@
         <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J18" s="6">
         <v>2</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA18" s="6">
         <v>556</v>
@@ -7214,7 +7154,7 @@
         <v>0.45</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ18" s="6">
         <v>8</v>
@@ -7228,34 +7168,34 @@
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J19" s="6">
         <v>2</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA19" s="6">
         <v>345</v>
@@ -7276,7 +7216,7 @@
         <v>0.66</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ19" s="6">
         <v>8</v>
@@ -7290,34 +7230,34 @@
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA20" s="6">
         <v>514</v>
@@ -7338,9 +7278,9 @@
         <v>5.7</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ20" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="AJ20" s="7"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -7350,34 +7290,34 @@
         <v>27</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J21" s="6">
         <v>2</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA21" s="6">
         <v>625</v>
@@ -7398,7 +7338,7 @@
         <v>0.63</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ21" s="6">
         <v>9</v>
@@ -7412,34 +7352,34 @@
         <v>27</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA22" s="6">
         <v>477</v>
@@ -7460,7 +7400,7 @@
         <v>7.01</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ22" s="6">
         <v>8</v>
@@ -7474,37 +7414,37 @@
         <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J23" s="6">
         <v>2</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA23">
         <v>1080</v>
@@ -7525,7 +7465,7 @@
         <v>7.48</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ23" s="6">
         <v>8</v>
@@ -7539,40 +7479,40 @@
         <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J24" s="6">
         <v>2</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA24" s="6">
         <v>593</v>
@@ -7593,7 +7533,7 @@
         <v>0.51</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ24" s="6">
         <v>9</v>
@@ -7607,40 +7547,40 @@
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J25" s="6">
         <v>2</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA25" s="6">
         <v>496</v>
@@ -7661,7 +7601,7 @@
         <v>8.81</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ25" s="6">
         <v>8</v>
@@ -7675,40 +7615,40 @@
         <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>547</v>
-      </c>
       <c r="I26" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA26" s="6">
         <v>470</v>
@@ -7729,7 +7669,7 @@
         <v>0.53</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ26" s="6">
         <v>8</v>
@@ -7743,40 +7683,40 @@
         <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J27" s="6">
         <v>2</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="AA27" s="6">
         <v>606</v>
@@ -7797,7 +7737,7 @@
         <v>6.88</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AJ27" s="6">
         <v>8</v>
